--- a/Excel/AdactinHotelbooking.xlsx
+++ b/Excel/AdactinHotelbooking.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mustafa\eclipse-workspace\FrameworkClass\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mustafa\Downloads\FrameworkClassBase\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4326A156-1CA2-490E-AC88-BEFAA34BADA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D14000-3DBB-48F2-83D0-281527430493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{7ED44B59-55AC-4050-9CE9-FB61A80958D0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7ED44B59-55AC-4050-9CE9-FB61A80958D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Adactin" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>UserName</t>
   </si>
@@ -129,12 +129,6 @@
   </si>
   <si>
     <t>November</t>
-  </si>
-  <si>
-    <t>LIU16F00M1</t>
-  </si>
-  <si>
-    <t>0AK3851OP5</t>
   </si>
   <si>
     <t>P6S80K8TUN</t>
@@ -144,7 +138,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,29 +496,29 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="7.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -619,7 +612,7 @@
         <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>27</v>

--- a/Excel/AdactinHotelbooking.xlsx
+++ b/Excel/AdactinHotelbooking.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mustafa\Downloads\FrameworkClassBase\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D14000-3DBB-48F2-83D0-281527430493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D30E33B-45C9-4DE5-9C6F-613B4DAE25F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7ED44B59-55AC-4050-9CE9-FB61A80958D0}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>UserName</t>
   </si>
@@ -132,12 +132,25 @@
   </si>
   <si>
     <t>P6S80K8TUN</t>
+  </si>
+  <si>
+    <t>72FP0GUFOT</t>
+  </si>
+  <si>
+    <t>E245O779ZX</t>
+  </si>
+  <si>
+    <t>4QE427H7D6</t>
+  </si>
+  <si>
+    <t>Z0RWBO01SS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,29 +509,29 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.5546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -612,7 +625,7 @@
         <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
         <v>27</v>
